--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_107.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_107.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,547 +488,559 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2113636363636364</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(18.26, 24.82)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:10.200000', '0:00:17.380000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:01:37.760000', '0:01:49.380000'), ('0:00:43.680000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:27.460000', '0:00:36.020000'), ('0:01:21.100000', '0:01:27.580000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (71.7, 78.4)]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02), (32.98, 35.26)]</t>
+          <t>[('0:00:47.020000', '0:01:01.580000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[('0:01:33', '0:01:43.280000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:36.740000', '0:01:48.820000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(72.5, 93.84)]</t>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(27.46, 36.02), (81.1, 87.58)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(101.44, 112.4)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[('0:00:19.360000', '0:00:23.020000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:15.940000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1052955665024631</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['E', 'E', 'B'], ['B', 'E', 'B'], ['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[['G', 'G', 'D/3'], ['D', 'G', 'D'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(121.08, 122.34)]</t>
+          <t>[('0:00:12.672857', '0:00:20.660521'), ('0:00:46.272131', '0:00:52.170000'), ('0:00:44.310045', '0:00:50.196303')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:01:18.061859', '0:01:21.614512'), ('0:00:00.440395', '0:00:03.583854'), ('0:00:06.126439', '0:00:09.980952')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1031,14 +1048,14 @@
           <t>schubert-winterreise_149</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
@@ -1046,20 +1063,25 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.7, 62.32)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.56, 69.42)]</t>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
@@ -1068,137 +1090,94 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(13.42, 53.02)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.88, 60.84)]</t>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (34.34, 35.88), (8.3, 12.96)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (49.08, 57.84), (1.44, 6.84)]</t>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.7, 21.42)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.64, 23.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
